--- a/ban.xlsx
+++ b/ban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Andishkade\Rasad Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23BAE35-8A27-4E06-988F-595B1126D286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49919DE3-9B63-4934-BB52-4B01D21F4FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>keywords</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>بنادر</t>
+  </si>
+  <si>
+    <t>بوئینگ</t>
+  </si>
+  <si>
+    <t>مناطق آزاد</t>
   </si>
 </sst>
 </file>
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,6 +702,16 @@
         <v>39</v>
       </c>
     </row>
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
